--- a/biology/Botanique/Plantes_toxiques_pour_les_équidés/Plantes_toxiques_pour_les_équidés.xlsx
+++ b/biology/Botanique/Plantes_toxiques_pour_les_équidés/Plantes_toxiques_pour_les_équidés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plantes_toxiques_pour_les_%C3%A9quid%C3%A9s</t>
+          <t>Plantes_toxiques_pour_les_équidés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes toxiques pour les équidés sont des plantes qui peuvent causer des troubles aux Équidés, chevaux, poneys, zèbres ou ânes, qui les ingèrent. Selon le type de plante, la quantité ingérée et le poids de l'animal, ces troubles peuvent aller de symptômes bénins à la mort en quelques heures.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plantes_toxiques_pour_les_%C3%A9quid%C3%A9s</t>
+          <t>Plantes_toxiques_pour_les_équidés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'état sauvage, les équidés reconnaissent généralement les plantes toxiques pour eux et ne les consomment pas[1]. La production de foin ensuite distribué aux chevaux peut causer un empoisonnement si des plantes toxiques séchées sont mélangées, les équidés n'étant alors pas capables de les reconnaître[1]. Aussi, un cheval manquant d'aliment ou tout simplement curieux pourra consommer toute plante ou substance toxique.
-La plus dangereuse de ces plantes est l'if (toutes les variétés, if commun, if du Japon, ou if du Canada), toxique pour tous les mammifères[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'état sauvage, les équidés reconnaissent généralement les plantes toxiques pour eux et ne les consomment pas. La production de foin ensuite distribué aux chevaux peut causer un empoisonnement si des plantes toxiques séchées sont mélangées, les équidés n'étant alors pas capables de les reconnaître. Aussi, un cheval manquant d'aliment ou tout simplement curieux pourra consommer toute plante ou substance toxique.
+La plus dangereuse de ces plantes est l'if (toutes les variétés, if commun, if du Japon, ou if du Canada), toxique pour tous les mammifères,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plantes_toxiques_pour_les_%C3%A9quid%C3%A9s</t>
+          <t>Plantes_toxiques_pour_les_équidés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
